--- a/DuThau/20200969359-QuanDoan4/Gui Thuc KHOI LUONG MOI THAU.xlsx
+++ b/DuThau/20200969359-QuanDoan4/Gui Thuc KHOI LUONG MOI THAU.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\ThucTran\HSTT\DuThau\20200969359-QuanDoan4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF3237F-1B67-4BBF-8FF9-7663E10B4D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$I$130</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -547,12 +541,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -767,73 +761,73 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -895,7 +889,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -928,26 +922,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -980,23 +957,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1172,31 +1132,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A2:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="8" max="8" width="16.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>163</v>
       </c>
@@ -1208,7 +1168,7 @@
       <c r="G2" s="29"/>
       <c r="H2" s="29"/>
     </row>
-    <row r="3" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>153</v>
       </c>
@@ -1237,7 +1197,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1255,7 +1215,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>1</v>
@@ -1282,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>166</v>
       </c>
@@ -1311,7 +1271,7 @@
         <v>-19333.333333333336</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1336,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8">
         <v>1</v>
@@ -1363,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>2</v>
@@ -1392,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8">
         <v>3</v>
@@ -1421,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8">
         <v>4</v>
@@ -1448,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
@@ -1473,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="8">
         <v>1</v>
@@ -1502,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>2</v>
@@ -1531,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>3</v>
@@ -1560,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>4</v>
@@ -1589,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>5</v>
@@ -1616,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8">
         <v>6</v>
@@ -1643,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>7</v>
@@ -1670,7 +1630,7 @@
         <v>975150</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8">
         <v>8</v>
@@ -1697,7 +1657,7 @@
         <v>9666.6666666666661</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -1722,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8">
         <v>1</v>
@@ -1751,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8">
         <v>2</v>
@@ -1780,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8">
         <v>3</v>
@@ -1807,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
@@ -1832,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="8">
         <v>1</v>
@@ -1861,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>2</v>
@@ -1890,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8">
         <v>3</v>
@@ -1919,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>4</v>
@@ -1948,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="8">
         <v>5</v>
@@ -1977,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="8">
         <v>6</v>
@@ -2004,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>43</v>
       </c>
@@ -2029,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8">
         <v>1</v>
@@ -2058,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="8">
         <v>2</v>
@@ -2087,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8">
         <v>3</v>
@@ -2116,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="8">
         <v>4</v>
@@ -2145,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="8">
         <v>5</v>
@@ -2172,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
@@ -2197,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="8">
         <v>1</v>
@@ -2226,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>54</v>
       </c>
@@ -2253,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="8">
         <v>1</v>
@@ -2282,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="8">
         <v>2</v>
@@ -2311,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="8">
         <v>3</v>
@@ -2340,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>58</v>
       </c>
@@ -2365,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8">
         <v>1</v>
@@ -2394,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="8">
         <v>2</v>
@@ -2423,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>62</v>
       </c>
@@ -2448,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="8">
         <v>1</v>
@@ -2477,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="8">
         <v>2</v>
@@ -2506,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="8">
         <v>3</v>
@@ -2535,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>68</v>
       </c>
@@ -2556,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="8">
         <v>1</v>
@@ -2585,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="8">
         <v>2</v>
@@ -2614,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="8">
         <v>3</v>
@@ -2643,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8">
         <v>4</v>
@@ -2672,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="8">
         <v>5</v>
@@ -2701,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="8">
         <v>6</v>
@@ -2730,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="8">
         <v>7</v>
@@ -2757,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="8">
         <v>8</v>
@@ -2784,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="8">
         <v>9</v>
@@ -2811,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="8">
         <v>10</v>
@@ -2838,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>81</v>
       </c>
@@ -2859,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="8">
         <v>1</v>
@@ -2886,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="8">
         <v>2</v>
@@ -2915,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="8">
         <v>3</v>
@@ -2944,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="8">
         <v>4</v>
@@ -2973,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="8">
         <v>5</v>
@@ -3000,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="8">
         <v>6</v>
@@ -3027,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>91</v>
       </c>
@@ -3048,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="8">
         <v>1</v>
@@ -3077,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="8">
         <v>2</v>
@@ -3106,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="8">
         <v>3</v>
@@ -3135,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="8">
         <v>4</v>
@@ -3164,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="8">
         <v>5</v>
@@ -3193,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>98</v>
       </c>
@@ -3216,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="8">
         <v>1</v>
@@ -3245,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="8">
         <v>2</v>
@@ -3274,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="8">
         <v>3</v>
@@ -3303,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>101</v>
       </c>
@@ -3328,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="8">
         <v>1</v>
@@ -3357,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="8">
         <v>2</v>
@@ -3386,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="8">
         <v>3</v>
@@ -3415,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="8">
         <v>4</v>
@@ -3444,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="8">
         <v>5</v>
@@ -3473,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="8">
         <v>6</v>
@@ -3502,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="8">
         <v>7</v>
@@ -3529,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>109</v>
       </c>
@@ -3554,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="8">
         <v>1</v>
@@ -3583,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="8">
         <v>2</v>
@@ -3612,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="8">
         <v>3</v>
@@ -3641,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="8">
         <v>4</v>
@@ -3670,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="8">
         <v>5</v>
@@ -3699,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="8">
         <v>6</v>
@@ -3728,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="8">
         <v>7</v>
@@ -3755,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="8">
         <v>8</v>
@@ -3782,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="8">
         <v>9</v>
@@ -3809,7 +3769,7 @@
         <v>-975150</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>166</v>
       </c>
@@ -3838,7 +3798,7 @@
         <v>9666.6666666666661</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>118</v>
       </c>
@@ -3863,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="8">
         <v>1</v>
@@ -3892,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>121</v>
       </c>
@@ -3917,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="8">
         <v>1</v>
@@ -3946,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="8">
         <v>2</v>
@@ -3975,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="8">
         <v>3</v>
@@ -4004,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="8">
         <v>4</v>
@@ -4033,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="8">
         <v>5</v>
@@ -4060,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>126</v>
       </c>
@@ -4085,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="8">
         <v>1</v>
@@ -4114,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="8">
         <v>2</v>
@@ -4143,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="8">
         <v>3</v>
@@ -4172,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="8">
         <v>4</v>
@@ -4201,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="8">
         <v>5</v>
@@ -4230,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="8">
         <v>6</v>
@@ -4259,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="8">
         <v>7</v>
@@ -4288,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="8">
         <v>8</v>
@@ -4317,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="8">
         <v>9</v>
@@ -4346,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="8">
         <v>10</v>
@@ -4375,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="8">
         <v>11</v>
@@ -4404,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="8">
         <v>12</v>
@@ -4433,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="8">
         <v>13</v>
@@ -4460,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>142</v>
       </c>
@@ -4485,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="8">
         <v>1</v>
@@ -4514,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="8">
         <v>2</v>
@@ -4543,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="8">
         <v>3</v>
@@ -4572,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="8">
         <v>4</v>
@@ -4601,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>148</v>
       </c>
@@ -4622,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
       <c r="B126" s="8">
         <v>1</v>
@@ -4649,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="8">
         <v>2</v>
@@ -4676,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="21"/>
       <c r="B128" s="22">
         <v>3</v>
@@ -4703,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="C129" s="26" t="s">
         <v>162</v>
       </c>
@@ -4722,7 +4682,7 @@
         <v>229690528</v>
       </c>
     </row>
-    <row r="130" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I130" s="1" t="s">
         <v>164</v>
       </c>
@@ -4732,17 +4692,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I130" xr:uid="{273FE928-1FB6-4B01-8631-D7A6661462BD}">
-    <filterColumn colId="8">
-      <filters blank="1">
-        <filter val="(19.333)"/>
-        <filter val="(4.793)"/>
-        <filter val="(975.150)"/>
-        <filter val="9.587"/>
-        <filter val="9.667"/>
-        <filter val="975.150"/>
-        <filter val="Giá gói thầu"/>
-        <filter val="Giảm"/>
+  <autoFilter ref="A3:I130">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="B cấp"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4752,24 +4705,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
